--- a/biology/Zoologie/Faunia/Faunia.xlsx
+++ b/biology/Zoologie/Faunia/Faunia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Faunia est un parc zoologique espagnol situé dans le district de Vicálvaro de la capitale, Madrid. Inauguré en 2001, sous le nom de Parc Biologique de Madrid, il est rebaptisé en 2002. Il est la propriété de la multinationale espagnole Parques Reunidos, dont le principal actionnaire est le fonds d'investissement britannique Arle Capital Partners. L'auteur du projet est Ricardo Novaro Bocco.
@@ -515,7 +527,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2002 le parc est rebaptisé Faunia, sur une idée du poète Fernando Beltrán. 
 </t>
@@ -548,23 +562,168 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Invertébrés
-Faunia présente quelques arachnides (Brachypelma smithi, Nhandu carapoensis, Aphonopelma seemanni) et quelques insectes (Eurycnema goliath, Baculum extradentatum, Attacus atlas).
-Poissons et amphibiens
-De nombreux poissons sont aussi présentés : carpes koï, poissons-éléphants, rascasses volantes, arapaimas, hippocampes, pyranas, pacus, poissons-chats, requins... Ainsi que des axolotls (amphibien en danger critique d’extinction) et des xénopes (Xenopus laevis). 
+          <t>Invertébrés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Faunia présente quelques arachnides (Brachypelma smithi, Nhandu carapoensis, Aphonopelma seemanni) et quelques insectes (Eurycnema goliath, Baculum extradentatum, Attacus atlas).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Faunia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faunia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Installations et faune hébergée</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Poissons et amphibiens</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreux poissons sont aussi présentés : carpes koï, poissons-éléphants, rascasses volantes, arapaimas, hippocampes, pyranas, pacus, poissons-chats, requins... Ainsi que des axolotls (amphibien en danger critique d’extinction) et des xénopes (Xenopus laevis). 
 			Hippocampe
-Reptiles
-Faunia présente des pythons molures, des varans des steppes d'Afrique orientale, des iguanes des Fidji et des iguanes verts, des caïmans à lunettes, des boas constricteurs, des crocodiles du Nil et des dragons de Komodo.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Faunia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faunia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Installations et faune hébergée</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Reptiles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Faunia présente des pythons molures, des varans des steppes d'Afrique orientale, des iguanes des Fidji et des iguanes verts, des caïmans à lunettes, des boas constricteurs, des crocodiles du Nil et des dragons de Komodo.
 			Le crocodile du Nil
 			Le crocodile du Nil
 			Le crocodile du Nil
-Oiseaux
-Plusieurs espèces de flamands, de canards, d'oies et de cygnes, dont la bernache à cou roux. Plusieurs espèces de rapaces dont le faucon sacre. Parmi les autres espèces on trouve des espèces menacées comme la grue royale, les manchots royaux, les manchots papous, les manchots Adélie, les gorfous sauteurs, les manchots de Magellan, les manchots de Humboldt, les amazones à nuque d'or, les hoccos de Daubenton, les agamis trompettes, et les conures soleil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Faunia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faunia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Installations et faune hébergée</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Oiseaux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs espèces de flamands, de canards, d'oies et de cygnes, dont la bernache à cou roux. Plusieurs espèces de rapaces dont le faucon sacre. Parmi les autres espèces on trouve des espèces menacées comme la grue royale, les manchots royaux, les manchots papous, les manchots Adélie, les gorfous sauteurs, les manchots de Magellan, les manchots de Humboldt, les amazones à nuque d'or, les hoccos de Daubenton, les agamis trompettes, et les conures soleil.
 			Grand-duc d'Europe
 			Manchots royaux
 			Ara macao
-Mammifères
-Parmi les mammifères présentés on trouve notamment des ânes sauvages d'Afrique, des lions de mer de Steller, des paresseux à deux doigts, des binturongs, des oryctéropes du Cap, des ocelots, des tatous à neuf bandes, des chinchillas à queue courte, des varis noir et blanc, des lémurs à front blanc, des lémurs catta, des fourimilliers à collier, des tamarins-lion dorés et des tamarins de Goeldi.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Faunia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faunia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Installations et faune hébergée</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les mammifères présentés on trouve notamment des ânes sauvages d'Afrique, des lions de mer de Steller, des paresseux à deux doigts, des binturongs, des oryctéropes du Cap, des ocelots, des tatous à neuf bandes, des chinchillas à queue courte, des varis noir et blanc, des lémurs à front blanc, des lémurs catta, des fourimilliers à collier, des tamarins-lion dorés et des tamarins de Goeldi.
 			Théâtre du lac
 			Otarie de Californie
 			Chiens de prairie
@@ -572,66 +731,70 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Faunia</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Faunia</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Faunia participait en 2007/2008 à 7 programmes EEP et 9 programmes ESB coordonnés par EAZA[2].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Faunia participait en 2007/2008 à 7 programmes EEP et 9 programmes ESB coordonnés par EAZA.
 En 2012, sur les 143 espèces de la collection, 12 font partie d'un programme ESB et 12 autres font partie d'un programme EEP. 
-Le parc est le coordinateur du programme européen pour les espèces menacées dédié au ouistiti de Geoffroy (espèce initialement classée vulnérable, mais reclassée en préoccupation mineure depuis 2008)[3],[4].
+Le parc est le coordinateur du programme européen pour les espèces menacées dédié au ouistiti de Geoffroy (espèce initialement classée vulnérable, mais reclassée en préoccupation mineure depuis 2008),.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Faunia</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Faunia</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Économie et fréquentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2014, il a reçu 400 867 visiteurs[5].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2014, il a reçu 400 867 visiteurs.
 </t>
         </is>
       </c>
